--- a/神姫エピソ－ドメモ管理帳.xlsx
+++ b/神姫エピソ－ドメモ管理帳.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seferrasiel/ghq/github.com/Angelmaneuver/xlsx2html/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.ghq\github.com\Angelmaneuver\xlsx2html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF11F8-C652-5D47-8AF5-22EB34870BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C6751-7927-46B6-B1B7-EB488F23BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSR神姫リスト" sheetId="2" r:id="rId1"/>
@@ -24,15 +24,15 @@
     <sheet name="スキンリスト" sheetId="27" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">R神姫リスト!$A$4:$AS$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SR神姫リスト!$A$4:$AS$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SSR神姫リスト!$A$4:$AS$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">イベントSR神姫リスト!$A$4:$AS$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">スキンリスト!$A$4:$AS$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">期間限定R神姫リスト!$A$4:$AS$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">期間限定SR神姫リスト!$A$4:$AS$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">期間限定SSR神姫リスト!$A$4:$AS$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">特典SR神姫リスト!$A$4:$AS$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">R神姫リスト!$A$4:$AU$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SR神姫リスト!$A$4:$AU$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SSR神姫リスト!$A$4:$AU$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">イベントSR神姫リスト!$A$4:$AU$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">スキンリスト!$A$4:$AU$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">期間限定R神姫リスト!$A$4:$AU$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">期間限定SR神姫リスト!$A$4:$AU$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">期間限定SSR神姫リスト!$A$4:$AU$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">特典SR神姫リスト!$A$4:$AU$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="60">
   <si>
     <t>不明</t>
   </si>
@@ -402,6 +402,35 @@
   </si>
   <si>
     <t>スキン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神化覚醒</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神想真化</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -409,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,7 +1141,21 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1232,9 +1275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1272,7 +1315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1378,7 +1421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1520,7 +1563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1528,55 +1571,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="40" width="30.6640625" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="15.625" style="2" customWidth="1"/>
+    <col min="13" max="42" width="30.625" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="33">
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS5:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <f>COUNTIF(AU5:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
         <v>0/0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="19">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1607,113 +1650,119 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="str">
         <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
         <v>001</v>
@@ -1731,11 +1780,17 @@
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1748,48 +1803,44 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>0</v>
+      <c r="AC5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="AE5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AF5" s="5" t="s">
-        <v>53</v>
+      <c r="AF5" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>0</v>
+      <c r="AH5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="AM5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1808,17 +1859,23 @@
       <c r="AR5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
+      <c r="AS5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AS4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:AS1048576">
-    <cfRule type="expression" dxfId="14" priority="128">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
+  <conditionalFormatting sqref="A5:AU1048576">
+    <cfRule type="expression" dxfId="16" priority="1">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,55 +1885,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB8602A-BDD9-4074-A934-98F0F563C0E8}">
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="40" width="30.6640625" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="42" width="30.625" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="33">
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS5:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <f>COUNTIF(AU5:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
         <v>0/0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="19">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1907,113 +1965,119 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="str">
         <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
         <v>001</v>
@@ -2031,12 +2095,638 @@
         <v>55</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5" t="s">
-        <v>10</v>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
+    <cfRule type="expression" dxfId="15" priority="201">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L1048576">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E218CE9-B630-4AF2-8E4E-86C035667F4B}">
+  <dimension ref="A1:AU5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="30.625" hidden="1" customWidth="1"/>
+    <col min="15" max="26" width="30.625" customWidth="1"/>
+    <col min="27" max="30" width="30.625" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="30.625" customWidth="1"/>
+    <col min="39" max="42" width="30.625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="str">
+        <f>COUNTIF(AU5:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <v>0/0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="str">
+        <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
+        <v>001</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
+    <cfRule type="expression" dxfId="13" priority="207">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L1048576">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F85275-2502-41F2-BEC8-4F5473477F28}">
+  <dimension ref="A1:AU5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="30.625" hidden="1" customWidth="1"/>
+    <col min="15" max="26" width="30.625" customWidth="1"/>
+    <col min="27" max="30" width="30.625" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="30.625" customWidth="1"/>
+    <col min="39" max="42" width="30.625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="str">
+        <f>COUNTIF(AU5:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <v>0/0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="str">
+        <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
+        <v>001</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2050,31 +2740,43 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
+      <c r="AC5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="AM5" s="5" t="s">
         <v>10</v>
@@ -2083,28 +2785,39 @@
         <v>10</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
+        <v>10</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AS4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:AS1048576">
-    <cfRule type="expression" dxfId="13" priority="200">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
+  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L1048576">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,62 +2825,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E218CE9-B630-4AF2-8E4E-86C035667F4B}">
-  <dimension ref="A1:AS5"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FCB3F6-DC9A-450E-A411-BEAC68752183}">
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="24" width="30.6640625" customWidth="1"/>
-    <col min="25" max="28" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="36" width="30.6640625" customWidth="1"/>
-    <col min="37" max="40" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="30.625" hidden="1" customWidth="1"/>
+    <col min="15" max="26" width="30.625" customWidth="1"/>
+    <col min="27" max="30" width="30.625" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="30.625" customWidth="1"/>
+    <col min="39" max="42" width="30.625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="33">
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS5:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <f>COUNTIF(AU5:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
         <v>0/0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="19">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2198,113 +2912,119 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="str">
         <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
         <v>001</v>
@@ -2316,18 +3036,22 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5" t="s">
-        <v>10</v>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2341,31 +3065,43 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="AM5" s="5" t="s">
         <v>10</v>
@@ -2374,28 +3110,39 @@
         <v>10</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
+        <v>10</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AS4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:AS1048576">
-    <cfRule type="expression" dxfId="12" priority="206">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
+  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L1048576">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2403,62 +3150,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F85275-2502-41F2-BEC8-4F5473477F28}">
-  <dimension ref="A1:AS5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FDA5D5-16EA-4CDE-8BA1-5FFD737839C7}">
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="24" width="30.6640625" customWidth="1"/>
-    <col min="25" max="28" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="36" width="30.6640625" customWidth="1"/>
-    <col min="37" max="40" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="30.625" hidden="1" customWidth="1"/>
+    <col min="15" max="26" width="30.625" customWidth="1"/>
+    <col min="27" max="30" width="30.625" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="30.625" customWidth="1"/>
+    <col min="39" max="42" width="30.625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="33">
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS5:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <f>COUNTIF(AU5:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
         <v>0/0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="19">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2489,113 +3237,119 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="str">
         <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
         <v>001</v>
@@ -2613,11 +3367,17 @@
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2630,48 +3390,44 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>0</v>
+      <c r="AC5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="AE5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AF5" s="5" t="s">
-        <v>53</v>
+      <c r="AF5" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>0</v>
+      <c r="AH5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="AM5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2690,22 +3446,28 @@
       <c r="AR5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
+      <c r="AS5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AS4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A6:AS1048576">
-    <cfRule type="expression" dxfId="11" priority="578">
-      <formula>AND($B6&lt;&gt;"", $AS6=FALSE)</formula>
+  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:AS5">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
+  <conditionalFormatting sqref="K5:L1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2713,62 +3475,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FCB3F6-DC9A-450E-A411-BEAC68752183}">
-  <dimension ref="A1:AS5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC425AC-0966-4877-9E08-374597D3A115}">
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="24" width="30.6640625" customWidth="1"/>
-    <col min="25" max="28" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="36" width="30.6640625" customWidth="1"/>
-    <col min="37" max="40" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="30.625" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="30.625" customWidth="1"/>
+    <col min="23" max="30" width="30.625" hidden="1" customWidth="1"/>
+    <col min="31" max="34" width="30.625" customWidth="1"/>
+    <col min="35" max="42" width="30.625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="33">
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS5:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <f>COUNTIF(AU6:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B6:B1048576)</f>
         <v>0/0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="19">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2799,113 +3562,119 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="str">
         <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
         <v>001</v>
@@ -2923,11 +3692,17 @@
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2940,48 +3715,44 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>0</v>
+      <c r="AC5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="AE5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AF5" s="5" t="s">
-        <v>53</v>
+      <c r="AF5" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>0</v>
+      <c r="AH5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="AM5" s="5" t="s">
         <v>10</v>
       </c>
@@ -3000,22 +3771,28 @@
       <c r="AR5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
+      <c r="AS5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AS4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <autoFilter ref="A4:AU5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A6:AS1048576">
-    <cfRule type="expression" dxfId="9" priority="619">
-      <formula>AND($B6&lt;&gt;"", $AS6=FALSE)</formula>
+  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:AS5">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
+  <conditionalFormatting sqref="K5:L1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3023,62 +3800,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FDA5D5-16EA-4CDE-8BA1-5FFD737839C7}">
-  <dimension ref="A1:AS5"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8149E469-960A-4FEF-A57B-04D2E9BAC916}">
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="24" width="30.6640625" customWidth="1"/>
-    <col min="25" max="28" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="36" width="30.6640625" customWidth="1"/>
-    <col min="37" max="40" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="30.625" hidden="1" customWidth="1"/>
+    <col min="15" max="26" width="30.625" customWidth="1"/>
+    <col min="27" max="30" width="30.625" hidden="1" customWidth="1"/>
+    <col min="31" max="34" width="30.625" customWidth="1"/>
+    <col min="35" max="42" width="30.625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="33">
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS5:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <f>COUNTIF(AU6:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B6:B1048576)</f>
         <v>0/0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="19">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -3109,113 +3887,119 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="str">
         <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
         <v>001</v>
@@ -3233,11 +4017,17 @@
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -3250,48 +4040,44 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>0</v>
+      <c r="AC5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="AE5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AF5" s="5" t="s">
-        <v>53</v>
+      <c r="AF5" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>0</v>
+      <c r="AH5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="AM5" s="5" t="s">
         <v>10</v>
       </c>
@@ -3310,22 +4096,28 @@
       <c r="AR5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
+      <c r="AS5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AS4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <autoFilter ref="A4:AU5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A6:AS1048576">
-    <cfRule type="expression" dxfId="7" priority="363">
-      <formula>AND($B6&lt;&gt;"", $AS6=FALSE)</formula>
+  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:AS5">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
+  <conditionalFormatting sqref="K5:L1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3333,62 +4125,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC425AC-0966-4877-9E08-374597D3A115}">
-  <dimension ref="A1:AS5"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92578C0-E7CB-404E-A9CF-6930DBC8ED7D}">
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="20" width="30.6640625" customWidth="1"/>
-    <col min="21" max="28" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="32" width="30.6640625" customWidth="1"/>
-    <col min="33" max="40" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="30.625" hidden="1" customWidth="1"/>
+    <col min="15" max="26" width="30.625" customWidth="1"/>
+    <col min="27" max="30" width="30.625" hidden="1" customWidth="1"/>
+    <col min="31" max="34" width="30.625" customWidth="1"/>
+    <col min="35" max="42" width="30.625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="100.625" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="100.625" customWidth="1"/>
+    <col min="46" max="46" width="15.625" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="33">
+    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS6:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B6:B1048576)</f>
+        <f>COUNTIF(AU6:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B6:B1048576)</f>
         <v>0/0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="19">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -3419,113 +4212,119 @@
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="str">
         <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
         <v>001</v>
@@ -3543,11 +4342,17 @@
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
+        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="5" t="str">
+        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+        <v/>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -3560,48 +4365,44 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>0</v>
+      <c r="AC5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="AE5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AF5" s="5" t="s">
-        <v>53</v>
+      <c r="AF5" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>0</v>
+      <c r="AH5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="AM5" s="5" t="s">
         <v>10</v>
       </c>
@@ -3620,642 +4421,28 @@
       <c r="AR5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
+      <c r="AS5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="5" t="str">
+        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AS5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <autoFilter ref="A4:AU5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A6:AS1048576">
-    <cfRule type="expression" dxfId="5" priority="306">
-      <formula>AND($B6&lt;&gt;"", $AS6=FALSE)</formula>
+  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:AS5">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8149E469-960A-4FEF-A57B-04D2E9BAC916}">
-  <dimension ref="A1:AS5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="24" width="30.6640625" customWidth="1"/>
-    <col min="25" max="28" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="32" width="30.6640625" customWidth="1"/>
-    <col min="33" max="40" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:45" ht="33">
-      <c r="B2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS6:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B6:B1048576)</f>
-        <v>0/0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:45" ht="19">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS4" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" s="13" t="str">
-        <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
-        <v>001</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:AS5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
-  <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A6:AS1048576">
-    <cfRule type="expression" dxfId="3" priority="346">
-      <formula>AND($B6&lt;&gt;"", $AS6=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:AS5">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92578C0-E7CB-404E-A9CF-6930DBC8ED7D}">
-  <dimension ref="A1:AS5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="24" width="30.6640625" customWidth="1"/>
-    <col min="25" max="28" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="32" width="30.6640625" customWidth="1"/>
-    <col min="33" max="40" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="100.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="100.6640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:45" ht="33">
-      <c r="B2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="B3" s="1" t="str">
-        <f>COUNTIF(AS6:AS1048576,TRUE)&amp;"/"&amp;COUNTA(B6:B1048576)</f>
-        <v>0/0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:45" ht="19">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS4" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" s="13" t="str">
-        <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
-        <v>001</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AK5&lt;&gt;"-", 3, IF(AG5&lt;&gt;"-", 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" ref="AS5" si="2">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AC5&lt;&gt;"不明",AG5&lt;&gt;"不明"),AND(AC5&lt;&gt;"不明")), "")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:AS5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
-  <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A6:AS1048576">
-    <cfRule type="expression" dxfId="1" priority="147">
-      <formula>AND($B6&lt;&gt;"", $AS6=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:AS5">
+  <conditionalFormatting sqref="K5:L1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($B5&lt;&gt;"", $AS5=FALSE)</formula>
+      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/神姫エピソ－ドメモ管理帳.xlsx
+++ b/神姫エピソ－ドメモ管理帳.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.ghq\github.com\Angelmaneuver\xlsx2html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C6751-7927-46B6-B1B7-EB488F23BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32703A56-31C3-42C8-96BF-5E8967D3C835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">R神姫リスト!$A$4:$AU$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SR神姫リスト!$A$4:$AU$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SSR神姫リスト!$A$4:$AU$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SSR神姫リスト!$A$4:$BB$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">イベントSR神姫リスト!$A$4:$AU$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">スキンリスト!$A$4:$AU$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">期間限定R神姫リスト!$A$4:$AU$5</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="67">
   <si>
     <t>不明</t>
   </si>
@@ -431,6 +431,37 @@
     <rPh sb="3" eb="4">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HP3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Attack3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>プロフィ－ル3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>エピソ－ド4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あらすじ4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>内容4</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タグ4</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1141,63 +1172,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1571,7 +1546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:BB5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -1590,36 +1565,41 @@
     <col min="7" max="7" width="10.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="18.625" style="3" customWidth="1"/>
-    <col min="10" max="12" width="15.625" style="2" customWidth="1"/>
-    <col min="13" max="42" width="30.625" customWidth="1"/>
-    <col min="43" max="43" width="100.625" customWidth="1"/>
-    <col min="44" max="44" width="15.625" customWidth="1"/>
-    <col min="45" max="45" width="100.625" customWidth="1"/>
-    <col min="46" max="46" width="15.625" customWidth="1"/>
-    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="3" customWidth="1"/>
+    <col min="12" max="14" width="15.625" style="2" customWidth="1"/>
+    <col min="15" max="49" width="30.625" customWidth="1"/>
+    <col min="50" max="50" width="100.625" customWidth="1"/>
+    <col min="51" max="51" width="15.625" customWidth="1"/>
+    <col min="52" max="52" width="100.625" customWidth="1"/>
+    <col min="53" max="53" width="15.625" customWidth="1"/>
+    <col min="54" max="54" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:47" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:54" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="str">
-        <f>COUNTIF(AU5:AU1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
+        <f>COUNTIF(BB5:BB1048576,TRUE)&amp;"/"&amp;COUNTA(B5:B1048576)</f>
         <v>0/0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1648,121 +1628,142 @@
         <v>15</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AY4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AS4" s="9" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AT4" s="9" t="s">
+      <c r="BA4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AU4" s="10" t="s">
+      <c r="BB4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="str">
         <f t="shared" ref="A5" si="0">TEXT(ROW()-4, "000")</f>
         <v>001</v>
@@ -1779,20 +1780,24 @@
       <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">IF(AM5&lt;&gt;"-", 3, IF(AI5&lt;&gt;"-", 2, 1))</f>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" ref="L5" si="1">IF(AP5&lt;&gt;"-", 3, IF(AL5&lt;&gt;"-", 2, 1))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="5" t="str">
-        <f>IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+      <c r="M5" s="5" t="str">
+        <f>IF(AP5&lt;&gt;"-", L5 &gt; 2, "")</f>
         <v/>
       </c>
-      <c r="L5" s="5" t="str">
-        <f t="shared" ref="L5" si="2">IF(AM5&lt;&gt;"-", J5 &gt; 2, "")</f>
+      <c r="N5" s="5" t="str">
+        <f t="shared" ref="N5" si="2">IF(AP5&lt;&gt;"-", L5 &gt; 2, "")</f>
         <v/>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1805,29 +1810,23 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
       <c r="AD5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AE5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>0</v>
@@ -1835,21 +1834,21 @@
       <c r="AJ5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AK5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AM5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="AP5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1865,17 +1864,38 @@
       <c r="AT5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AU5" s="5" t="str">
-        <f t="shared" ref="AU5" si="3">IF(B5&lt;&gt;"", IF(J5&gt;1,AND(AE5&lt;&gt;"不明",AI5&lt;&gt;"不明"),AND(AE5&lt;&gt;"不明")), "")</f>
+      <c r="AU5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="5" t="str">
+        <f t="shared" ref="BB5" si="3">IF(B5&lt;&gt;"", IF(L5&gt;1,AND(AH5&lt;&gt;"不明",AL5&lt;&gt;"不明"),AND(AH5&lt;&gt;"不明")), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
+  <autoFilter ref="A4:BB4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:AU1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
+  <conditionalFormatting sqref="A5:BB1048576">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>AND($B5&lt;&gt;"", $BB5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2174,13 +2194,8 @@
   </sheetData>
   <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
-    <cfRule type="expression" dxfId="15" priority="201">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+  <conditionalFormatting sqref="A5:AU1048576">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2485,13 +2500,8 @@
   </sheetData>
   <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
-    <cfRule type="expression" dxfId="13" priority="207">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
+  <conditionalFormatting sqref="A5:AU1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2810,13 +2820,8 @@
   </sheetData>
   <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L1048576">
-    <cfRule type="expression" dxfId="10" priority="1">
+  <conditionalFormatting sqref="A5:AU1048576">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3135,13 +3140,8 @@
   </sheetData>
   <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="A5:AU1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3460,13 +3460,8 @@
   </sheetData>
   <autoFilter ref="A4:AU4" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="A5:AU1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3785,13 +3780,8 @@
   </sheetData>
   <autoFilter ref="A4:AU5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A5:AU1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4110,13 +4100,8 @@
   </sheetData>
   <autoFilter ref="A4:AU5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A5:AU1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4435,12 +4420,7 @@
   </sheetData>
   <autoFilter ref="A4:AU5" xr:uid="{746CCC2C-B574-44E3-9619-7EA424026B94}"/>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A5:J1048576 M5:AU1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L1048576">
+  <conditionalFormatting sqref="A5:AU1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($B5&lt;&gt;"", $AU5=FALSE)</formula>
     </cfRule>
